--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,10 +1331,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1406,10 +1406,10 @@
         <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. </t>
+    <t>Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. 
+XCN de HL7 v2.5</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,17 +251,17 @@
     <t>Base</t>
   </si>
   <si>
-    <t>ActorXDS.XCN1</t>
+    <t>ActorXDS.XCN1[x]</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme)
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}
 </t>
   </si>
   <si>
-    <t>Identifiant</t>
+    <t>Identifiant de l'acteur</t>
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
@@ -941,7 +944,7 @@
         <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1007,15 +1010,15 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1038,13 +1041,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1095,7 +1098,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
@@ -1110,15 +1113,15 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1141,13 +1144,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1198,7 +1201,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -1213,15 +1216,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1244,13 +1247,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1301,7 +1304,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1316,15 +1319,15 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1347,13 +1350,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1404,7 +1407,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -1419,15 +1422,15 @@
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1450,13 +1453,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1507,7 +1510,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1522,15 +1525,15 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1553,13 +1556,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1610,7 +1613,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -1625,15 +1628,15 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1656,13 +1659,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1713,7 +1716,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -1728,15 +1731,15 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1759,13 +1762,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1816,7 +1819,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -1831,7 +1834,7 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
@@ -944,7 +941,7 @@
         <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1010,15 +1007,15 @@
         <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1041,13 +1038,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="M4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1098,7 +1095,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
@@ -1113,15 +1110,15 @@
         <v>73</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1144,13 +1141,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1201,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -1216,15 +1213,15 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1247,13 +1244,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L6" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1304,7 +1301,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1319,15 +1316,15 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1350,13 +1347,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1407,7 +1404,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -1422,15 +1419,15 @@
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1453,13 +1450,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1510,7 +1507,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1525,15 +1522,15 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1556,13 +1553,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1613,7 +1610,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -1628,15 +1625,15 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1659,13 +1656,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1716,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -1731,15 +1728,15 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1762,13 +1759,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1819,7 +1816,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -1834,7 +1831,7 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,8 +257,8 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}
-</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINShttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNRstring {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}</t>
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
@@ -663,7 +663,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="197.09765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,14 +251,14 @@
     <t>Base</t>
   </si>
   <si>
-    <t>ActorXDS.XCN1[x]</t>
+    <t>ActorXDS.XCN1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat
-https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINShttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNRstring {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/IdentifiantSysteme}</t>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Identifiant
+</t>
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
@@ -663,7 +663,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="197.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-ActorXDS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
